--- a/PV_ICE/baselines/SupportingMaterial/InternationalAluminumInst-2019-LCI-energyGLO.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/InternationalAluminumInst-2019-LCI-energyGLO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\CE\DataForPVICE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29A3BF0-2C12-40B0-936A-1434C9CF8FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E34B19-A2B7-4B24-A94F-272DF0594A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{746C3A70-66DF-4C5E-B357-C8BF9CF6FA86}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>MJ/t product</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>All but mining</t>
+  </si>
+  <si>
+    <t>TRANSPORT RELATED</t>
   </si>
 </sst>
 </file>
@@ -181,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -235,19 +238,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -255,7 +245,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -263,16 +253,7 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -303,15 +284,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -643,496 +615,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C31735-7F76-417A-9EAA-7FBD0D00FC78}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="42" x14ac:dyDescent="0.35">
-      <c r="A1" s="13"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="16" t="s">
+    <row r="1" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+      <c r="A1" s="10"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="16" t="s">
+      <c r="G1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="H1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="12"/>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="17" t="s">
+      <c r="H2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
         <v>5.7324746419199402</v>
       </c>
-      <c r="D3" s="5">
-        <v>0.35918920649945479</v>
+      <c r="D3" s="2">
+        <v>842.03419235745673</v>
       </c>
       <c r="E3" s="2">
-        <v>842.03419235745673</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.89429606608581258</v>
-      </c>
-      <c r="G3" s="2">
         <v>469.82502893910299</v>
       </c>
-      <c r="H3" s="6">
-        <v>0.97483200412669879</v>
-      </c>
+      <c r="F3" s="2">
+        <v>559.32104996078203</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="2">
-        <v>559.32104996078203</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0.3206637525751404</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="2">
         <v>69.184074573412104</v>
       </c>
-      <c r="P3" s="1">
-        <v>0.34944262431697376</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="12">
-        <v>79.353335612399107</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.35918920649945479</v>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.0996232214272601</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2477.8884923403248</v>
       </c>
       <c r="E4" s="2">
-        <v>7.0123389135446814</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.89429606608581258</v>
-      </c>
-      <c r="G4" s="2">
-        <v>12.0877689846116</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0.97483200412669879</v>
-      </c>
+        <v>53.596036098105898</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2097.3551146322102</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="2">
-        <v>6.6206739261184104</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0.3206637525751404</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="2">
-        <v>3.8375512925073201</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0.34944262431697376</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.0996232214272601</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.35918920649945479</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2477.8884923403248</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.89429606608581258</v>
-      </c>
-      <c r="G5" s="2">
-        <v>53.596036098105898</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0.97483200412669879</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2097.3551146322102</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0.3206637525751404</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="2">
         <v>743.89370806944203</v>
       </c>
-      <c r="P5" s="1">
-        <v>0.34944262431697376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="B5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
         <v>21.927162486316</v>
       </c>
-      <c r="D6" s="5">
-        <v>0.35918920649945479</v>
+      <c r="D5" s="2">
+        <v>6414.4495805831493</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>22.971227136563513</v>
+      </c>
+      <c r="D6" s="2">
+        <v>546.87125152396993</v>
       </c>
       <c r="E6" s="2">
-        <v>6414.4495805831493</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.89429606608581258</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.97483200412669879</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0.3206637525751404</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0.34944262431697376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="12">
-        <v>22.971227136563513</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.30733432644492914</v>
-      </c>
-      <c r="E7" s="2">
-        <v>546.87125152396993</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.89429606608581258</v>
-      </c>
-      <c r="G7" s="2">
         <v>396.44753634992202</v>
       </c>
-      <c r="H7" s="6">
-        <v>0.97483200412669879</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="F6" s="2">
         <v>465.72525666002099</v>
       </c>
-      <c r="J7" s="5">
-        <v>0.3206637525751404</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="G6" s="2">
         <f>16780.570920003*3.6</f>
         <v>60410.055312010802</v>
       </c>
-      <c r="L7" s="6">
-        <v>1</v>
-      </c>
-      <c r="M7" s="2">
+      <c r="H6" s="2">
         <f>14169.5459532745*3.6</f>
         <v>51010.365431788203</v>
       </c>
-      <c r="N7" s="6">
+      <c r="I6" s="2">
+        <v>392.94391564343101</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="8">
+        <f>C6+D6+E6+F6+0.05*G6+0.95*H6+I6</f>
+        <v>53305.309113113239</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="O7" s="2">
-        <v>392.94391564343101</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0.34944262431697376</v>
-      </c>
-      <c r="Q7" s="11">
-        <f>C7+E7+G7+I7+0.05*K7+0.95*M7+O7</f>
-        <v>53305.309113113239</v>
-      </c>
-      <c r="R7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="B7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
         <v>6.3716874550078387E-3</v>
       </c>
-      <c r="D8" s="5">
-        <v>0.35918920649945479</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D7" s="2">
         <v>168.26358377691901</v>
       </c>
-      <c r="F8" s="5">
-        <v>0.89429606608581258</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0.97483200412669879</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
         <v>116.02041431097599</v>
       </c>
-      <c r="J8" s="5">
-        <v>0.3206637525751404</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="2">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="2">
         <v>32.142607196956931</v>
       </c>
-      <c r="P8" s="1">
-        <v>0.34944262431697376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="P9" t="s">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J8" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="24" t="s">
+      <c r="K8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="24"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="23">
-        <f>SUM(C3:C8)</f>
-        <v>131.09019478608084</v>
-      </c>
-      <c r="E10" s="23">
-        <f>SUM(E3:E8)</f>
-        <v>10456.519439495363</v>
-      </c>
-      <c r="G10" s="23">
-        <f>SUM(G3:G8)</f>
-        <v>931.95637037174242</v>
-      </c>
-      <c r="I10" s="23">
-        <f>SUM(I3:I8)</f>
-        <v>3245.0425094901075</v>
-      </c>
-      <c r="K10" s="23">
-        <f>SUM(K3:K8)</f>
+      <c r="C9" s="17">
+        <f>SUM(C3:C7)</f>
+        <v>51.736859173681722</v>
+      </c>
+      <c r="D9" s="17">
+        <f>SUM(D3:D7)</f>
+        <v>10449.507100581819</v>
+      </c>
+      <c r="E9" s="17">
+        <f>SUM(E3:E7)</f>
+        <v>919.86860138713087</v>
+      </c>
+      <c r="F9" s="17">
+        <f>SUM(F3:F7)</f>
+        <v>3238.4218355639891</v>
+      </c>
+      <c r="G9" s="17">
+        <f>SUM(G3:G7)</f>
         <v>60410.055312010802</v>
       </c>
-      <c r="M10" s="23">
-        <f>SUM(M3:M8)</f>
+      <c r="H9" s="17">
+        <f>SUM(H3:H7)</f>
         <v>51010.365431788203</v>
       </c>
-      <c r="O10" s="23">
-        <f>SUM(O3:O8)</f>
-        <v>1242.0018567757495</v>
-      </c>
-      <c r="P10" s="23">
-        <f>E10+G10+I10+0.05*K10+0.95*M10+O10</f>
-        <v>67355.870101932291</v>
-      </c>
-      <c r="Q10" s="24">
-        <f>C10+E10+G10+I10+0.05*K10+0.95*M10+O10</f>
-        <v>67486.960296718375</v>
-      </c>
-      <c r="R10" s="24"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="25" t="s">
+      <c r="I9" s="17">
+        <f>SUM(I3:I7)</f>
+        <v>1238.1643054832421</v>
+      </c>
+      <c r="J9" s="17">
+        <f>D9+E9+F9+0.05*G9+0.95*H9+I9</f>
+        <v>67326.311768815518</v>
+      </c>
+      <c r="K9" s="18">
+        <f>C9+D9+E9+F9+0.05*G9+0.95*H9+I9</f>
+        <v>67378.048627989192</v>
+      </c>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="26">
-        <f>C10/$Q$10</f>
-        <v>1.9424522042438951E-3</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26">
-        <f>E10/$Q$10</f>
-        <v>0.15494133079222155</v>
-      </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26">
-        <f>G10/$Q$10</f>
-        <v>1.380942875889255E-2</v>
-      </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26">
-        <f>I10/$Q$10</f>
-        <v>4.8083992747972398E-2</v>
-      </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26">
-        <f>K10*0.05/$Q$10</f>
-        <v>4.4756835280776688E-2</v>
-      </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26">
-        <f>M10*0.95/$Q$10</f>
-        <v>0.718062377489466</v>
-      </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26">
-        <f>O10/$Q$10</f>
-        <v>1.8403582726426976E-2</v>
-      </c>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="27">
-        <f>Q7/Q10</f>
-        <v>0.78986086910340914</v>
-      </c>
-      <c r="R11" s="24" t="s">
+      <c r="C10" s="20">
+        <f>C9/$K$9</f>
+        <v>7.6785926911201704E-4</v>
+      </c>
+      <c r="D10" s="20">
+        <f>D9/$K$9</f>
+        <v>0.15508770754516982</v>
+      </c>
+      <c r="E10" s="20">
+        <f>E9/$K$9</f>
+        <v>1.365234850397571E-2</v>
+      </c>
+      <c r="F10" s="20">
+        <f>F9/$K$9</f>
+        <v>4.8063455405841657E-2</v>
+      </c>
+      <c r="G10" s="20">
+        <f>G9*0.05/$K$9</f>
+        <v>4.4829181418973414E-2</v>
+      </c>
+      <c r="H10" s="20">
+        <f>H9*0.95/$K$9</f>
+        <v>0.71922307260273366</v>
+      </c>
+      <c r="I10" s="20">
+        <f>I9/$K$9</f>
+        <v>1.8376375254193725E-2</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21">
+        <f>K6/K9</f>
+        <v>0.79113762120694509</v>
+      </c>
+      <c r="L10" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="26">
-        <f>1-(C7/C10)</f>
-        <v>0.82476777020547543</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26">
-        <f>1-(E7/E10)</f>
-        <v>0.94770045093031818</v>
-      </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26">
-        <f>1-(G7/G10)</f>
-        <v>0.57460719304726093</v>
-      </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26">
-        <f>1-(I7/I10)</f>
-        <v>0.85648099977180259</v>
-      </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26">
-        <f>1-(K7/K10)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26">
-        <f>1-(M7/M10)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26">
-        <f>1-(O7/O10)</f>
-        <v>0.6836205086975331</v>
-      </c>
-      <c r="P12" s="26">
-        <f>1-(E7+G7+I7+0.05*K7+0.95*M7+O7)/P10</f>
-        <v>0.20894292055996877</v>
-      </c>
-      <c r="Q12" s="27">
-        <f>1-Q11</f>
-        <v>0.21013913089659086</v>
-      </c>
-      <c r="R12" s="24" t="s">
+      <c r="C11" s="20">
+        <f>1-(C6/C9)</f>
+        <v>0.55599880813312186</v>
+      </c>
+      <c r="D11" s="20">
+        <f>1-(D6/D9)</f>
+        <v>0.94766535433106502</v>
+      </c>
+      <c r="E11" s="20">
+        <f>1-(E6/E9)</f>
+        <v>0.56901720990140059</v>
+      </c>
+      <c r="F11" s="20">
+        <f>1-(F6/F9)</f>
+        <v>0.85618758756333779</v>
+      </c>
+      <c r="G11" s="20">
+        <f>1-(G6/G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="20">
+        <f>1-(H6/H9)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="20">
+        <f>1-(I6/I9)</f>
+        <v>0.68263992597487344</v>
+      </c>
+      <c r="J11" s="20">
+        <f>1-(D6+E6+F6+0.05*G6+0.95*H6+I6)/J9</f>
+        <v>0.20859562203649173</v>
+      </c>
+      <c r="K11" s="21">
+        <f>1-K10</f>
+        <v>0.20886237879305491</v>
+      </c>
+      <c r="L11" s="18" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
+        <v>79.353335612399107</v>
+      </c>
+      <c r="D14" s="2">
+        <v>7.0123389135446814</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12.0877689846116</v>
+      </c>
+      <c r="F14" s="2">
+        <v>6.6206739261184104</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="2">
+        <v>3.8375512925073201</v>
+      </c>
+      <c r="J14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>